--- a/excel-output.xlsx
+++ b/excel-output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>Ngày đến</t>
   </si>
@@ -40,18 +40,102 @@
     <t>Đơn vị hoặc người nhận VB</t>
   </si>
   <si>
+    <t>01/03/2019</t>
+  </si>
+  <si>
+    <t>Phòng Tổng hợp</t>
+  </si>
+  <si>
+    <t>Thông báo kêt quả xét nghiệm 017</t>
+  </si>
+  <si>
+    <t>Chi cục CN, TY &amp; TS Lâm Đồng</t>
+  </si>
+  <si>
+    <t>04/03/2019</t>
+  </si>
+  <si>
+    <t>UBND tỉnh Đắk Lắk</t>
+  </si>
+  <si>
+    <t>88-02</t>
+  </si>
+  <si>
+    <t>Công điện khẩn về việc tăng cường kiểm soát buôn bán, giết mổ, vận chuyển lợn và sản phẩm lợn để phòng, chống bệnh Dịch tả lợn Châu Phi</t>
+  </si>
+  <si>
+    <t>Chi cục Thú y vùng V</t>
+  </si>
+  <si>
+    <t>Cục Hải quan tỉnh Đắk Lắk</t>
+  </si>
+  <si>
+    <t>89-101</t>
+  </si>
+  <si>
+    <t>Quyết định về việc ban hành quy chế tổ chức và hoạt động khối thi đua số 12 năm 2019</t>
+  </si>
+  <si>
+    <t>Bộ Nông nghiệp và phát triển nông thôn</t>
+  </si>
+  <si>
+    <t>90-700</t>
+  </si>
+  <si>
+    <t>Quyết định ban hành danh mục thủ tục hành chính trong lĩnh vực NN&amp;PTNT</t>
+  </si>
+  <si>
+    <t>Cục Thú y</t>
+  </si>
+  <si>
+    <t>92-325</t>
+  </si>
+  <si>
+    <t>Công văn về việc có ý kiến đối với việc thành lập trạm kiểm dịch động thực vật của UBND tỉnh Đắk Nông</t>
+  </si>
+  <si>
+    <t>UBKT tỉnh Đắk Lắk</t>
+  </si>
+  <si>
+    <t>93-224</t>
+  </si>
+  <si>
+    <t>Thông báo phân công nhiệm vụ theo dõi địa bàn, lĩnh vực đối với các thành viên UBKT tỉnh ủy khóa XVI và các phòng thuộc cơ quan UBKT tỉnh ủy nhiệm kỳ 2015-2020</t>
+  </si>
+  <si>
+    <t>05/03/2019</t>
+  </si>
+  <si>
+    <t>Viện vệ sinh dịch tễ Tây Nguyên</t>
+  </si>
+  <si>
+    <t>94-86</t>
+  </si>
+  <si>
+    <t>Giấy mời tham dự lễ khánh thành trung tâm đáp ứng khẩn cấp sự kiện y tế công cộng khu vực Tây Nguyên (EOC)</t>
+  </si>
+  <si>
+    <t>06/03/2019</t>
+  </si>
+  <si>
+    <t>Phòng KD &amp; TYCĐ</t>
+  </si>
+  <si>
+    <t>Công văn về việc báo cáo kết quả kiểm tra nơi nuôi cách ly kiểm dịch động vật thủy sản</t>
+  </si>
+  <si>
+    <t>09/03/2019</t>
+  </si>
+  <si>
+    <t>Thông báo kết quả xét nghiệm 018</t>
+  </si>
+  <si>
     <t>10/03/2019</t>
   </si>
   <si>
-    <t>Phòng Tổng hợp</t>
-  </si>
-  <si>
     <t>Thông báo kết quả xét nghiệm 019</t>
   </si>
   <si>
-    <t>Chi cục CN, TY &amp; TS Lâm Đồng</t>
-  </si>
-  <si>
     <t>11/03/2019</t>
   </si>
   <si>
@@ -61,15 +145,9 @@
     <t>Chi cục CN &amp; TY Đắk Lắk</t>
   </si>
   <si>
-    <t>Phòng KD &amp; TYCĐ</t>
-  </si>
-  <si>
     <t>Công văn về việc báo cáo rà soát hoạt động tạ cửa khẩu Đắk Peur và Bu Prăng, tỉnh Đắk Nông</t>
   </si>
   <si>
-    <t>Cục Thú y</t>
-  </si>
-  <si>
     <t>12/03/2019</t>
   </si>
   <si>
@@ -82,6 +160,30 @@
     <t>Siệu thị Big C Đà Lạt</t>
   </si>
   <si>
+    <t>07/03/2019</t>
+  </si>
+  <si>
+    <t>Cục Thuế tỉnh Đắk Lắk</t>
+  </si>
+  <si>
+    <t>95-373</t>
+  </si>
+  <si>
+    <t>Thông báo về việc giải trình, bổ sung thông tin, tài liệu</t>
+  </si>
+  <si>
+    <t>08/03/2019</t>
+  </si>
+  <si>
+    <t>Văn phòng Sở Nông nghiệp Đắk Lắk</t>
+  </si>
+  <si>
+    <t>96-613</t>
+  </si>
+  <si>
+    <t>Công văn về việc góp ý đề án &amp;quot;xây dựng vùng, cơ sở an toàn dịch bệnh đối với bệnh LMLM, dịch tả trên lợn, tại địa bàn huyện Ea Kar. tỉnh Đắk Lắk, giai đoạn 2018-2022&amp;quot;</t>
+  </si>
+  <si>
     <t>13/03/2019</t>
   </si>
   <si>
@@ -94,7 +196,19 @@
     <t>Công văn về việc báo cáo kết quả kiểm tra nơi nuôi cách ly kiểm dịch động vật</t>
   </si>
   <si>
-    <t>UBND tỉnh Đắk Lắk</t>
+    <t>Đơn vị Nghiên cứu Lâm sàng Đại Học Oxford (OUCRU-VN)</t>
+  </si>
+  <si>
+    <t>102-116-0319</t>
+  </si>
+  <si>
+    <t>Công văn về việc giới thiệu chuyên viên đến làm việc tại Chi cục TYV5</t>
+  </si>
+  <si>
+    <t>103-358</t>
+  </si>
+  <si>
+    <t>Công văn về việc kiểm dịch, kiểm tra ATTP đối với các lô hàng sản phẩm động vật, thủy sản nhập khẩu làm thực phẩm</t>
   </si>
   <si>
     <t>104-1912</t>
@@ -445,7 +559,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,13 +598,13 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -510,22 +624,22 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>48</v>
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -536,22 +650,22 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>49</v>
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -559,25 +673,25 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -585,25 +699,25 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>51</v>
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -611,25 +725,25 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -637,25 +751,25 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>53</v>
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -663,29 +777,367 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B9">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>146</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>148</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>150</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>151</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>152</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17">
+        <v>153</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>157</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>158</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20">
+        <v>162</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21">
+        <v>163</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>164</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
